--- a/data/trans_media/Q15_1-Estudios-trans_media.xlsx
+++ b/data/trans_media/Q15_1-Estudios-trans_media.xlsx
@@ -729,37 +729,37 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,55</t>
+          <t>1,14; 1,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,31</t>
+          <t>1,06; 1,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,17</t>
+          <t>1,24; 2,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,73</t>
+          <t>1,08; 1,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 1,75</t>
+          <t>1,24; 1,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,2; 1,74</t>
+          <t>1,2; 1,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,49; 1,99</t>
+          <t>1,48; 1,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,17 +769,17 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 1,58</t>
+          <t>1,22; 1,57</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,18; 1,52</t>
+          <t>1,18; 1,49</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,45; 1,89</t>
+          <t>1,46; 1,87</t>
         </is>
       </c>
     </row>
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 1,29</t>
+          <t>1,09; 1,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,37</t>
+          <t>1,06; 1,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,22 +879,22 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,49</t>
+          <t>1,03; 1,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,19</t>
+          <t>1,01; 1,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 1,26</t>
+          <t>1,07; 1,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,39</t>
+          <t>1,09; 1,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,22 +904,22 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,25</t>
+          <t>1,07; 1,23</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 1,31</t>
+          <t>1,09; 1,27</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 1,25</t>
+          <t>1,09; 1,24</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,33</t>
+          <t>1,1; 1,38</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,14</t>
+          <t>1,0; 1,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,45</t>
+          <t>1,0; 1,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,18</t>
+          <t>1,0; 1,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,82</t>
+          <t>1,06; 3,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,3</t>
+          <t>1,0; 1,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,23</t>
+          <t>1,0; 1,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,51</t>
+          <t>1,04; 1,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,23</t>
+          <t>1,02; 1,28</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 2,08</t>
+          <t>1,09; 1,97</t>
         </is>
       </c>
     </row>
@@ -1144,52 +1144,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,21</t>
+          <t>1,08; 1,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,33</t>
+          <t>1,11; 1,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,18</t>
+          <t>1,06; 1,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,55</t>
+          <t>1,14; 1,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,32</t>
+          <t>1,07; 1,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,46</t>
+          <t>1,17; 1,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,38</t>
+          <t>1,15; 1,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,29; 1,55</t>
+          <t>1,28; 1,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 1,22</t>
+          <t>1,09; 1,21</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,16; 1,31</t>
+          <t>1,16; 1,32</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,24; 1,47</t>
+          <t>1,25; 1,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/Q15_1-Estudios-trans_media.xlsx
+++ b/data/trans_media/Q15_1-Estudios-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -729,12 +729,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,56</t>
+          <t>1,15; 1,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,32</t>
+          <t>1,06; 1,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,12 +744,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,08; 1,77</t>
+          <t>1,08; 1,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,24; 1,75</t>
+          <t>1,25; 1,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,08; 1,45</t>
+          <t>1,07; 1,42</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 1,57</t>
+          <t>1,24; 1,58</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,18; 1,49</t>
+          <t>1,19; 1,53</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 1,33</t>
+          <t>1,08; 1,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,43</t>
+          <t>1,06; 1,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,2</t>
+          <t>1,02; 1,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,26</t>
+          <t>1,08; 1,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 1,4</t>
+          <t>1,09; 1,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,23</t>
+          <t>1,07; 1,24</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 1,27</t>
+          <t>1,09; 1,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 1,24</t>
+          <t>1,08; 1,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,15</t>
+          <t>1,0; 1,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,43</t>
+          <t>1,0; 1,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,19</t>
+          <t>1,0; 1,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,12 +1024,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,32</t>
+          <t>1,0; 1,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,22</t>
+          <t>1,0; 1,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1044,12 +1044,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,14</t>
+          <t>1,02; 1,16</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,28</t>
+          <t>1,02; 1,24</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1149,12 +1149,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 1,31</t>
+          <t>1,11; 1,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,18</t>
+          <t>1,07; 1,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,34</t>
+          <t>1,07; 1,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,41</t>
+          <t>1,17; 1,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,15; 1,39</t>
+          <t>1,15; 1,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,12 +1184,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 1,21</t>
+          <t>1,08; 1,21</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,16; 1,32</t>
+          <t>1,15; 1,33</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
